--- a/Project 2/Project 2.5/tchatchoua.xlsx
+++ b/Project 2/Project 2.5/tchatchoua.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 2/Project 2.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C26AFCE-0C76-7C45-B8EB-B1E74CFD64EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE81A5A-7641-3F44-A1AA-49C0629374D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
@@ -101,10 +101,13 @@
     <t>To/A3To</t>
   </si>
   <si>
-    <t>Ta/TIBC</t>
+    <t>To/PrgA</t>
   </si>
   <si>
-    <t>To/PrgA</t>
+    <t>Rodrigo Gomes</t>
+  </si>
+  <si>
+    <t>To/TIBC</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T17" sqref="T17"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,13 +579,13 @@
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="5" t="s">
@@ -878,8 +881,8 @@
         <v>7.4299583911234386</v>
       </c>
       <c r="R5">
-        <f>((1.12/2.15)+(15.55/53.27))/2</f>
-        <v>0.40641968733219541</v>
+        <f>((1.12/2.15)+(15.55/53.37))/2</f>
+        <v>0.40614621052677458</v>
       </c>
       <c r="S5">
         <f>((0.75/2.15)+(22.76/53.57))/2</f>
@@ -903,7 +906,77 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="V6" s="2"/>
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>731</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <f>(36+64+96)/3</f>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>69</v>
+      </c>
+      <c r="I6">
+        <f>(83+37)/2</f>
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>96</v>
+      </c>
+      <c r="K6">
+        <v>43</v>
+      </c>
+      <c r="L6">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <f>49.12/(3.2+2.09+8.86)</f>
+        <v>3.4713780918727917</v>
+      </c>
+      <c r="O6">
+        <f>49.12/21.05</f>
+        <v>2.3334916864608073</v>
+      </c>
+      <c r="P6">
+        <f>49.12/(3.82+2.46+0.99)</f>
+        <v>6.7565337001375516</v>
+      </c>
+      <c r="R6">
+        <f>((1.07/2.15)+(15.03/52.25))/2</f>
+        <v>0.39266496049849786</v>
+      </c>
+      <c r="S6">
+        <f>((0.81/2.15)+(22.37/52.25))/2</f>
+        <v>0.40243907866918882</v>
+      </c>
+      <c r="T6">
+        <f>((0.27/2.15)+(15.48/52.25))/2</f>
+        <v>0.21092466896628465</v>
+      </c>
+      <c r="V6" s="2">
+        <f>0.54/0.81</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W6">
+        <f>0/0.81</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>0.18/0.81</f>
+        <v>0.22222222222222221</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="V10" s="2"/>
